--- a/project_data/machaccnt_pay_dispatch/退款记账接口测试用例.xlsx
+++ b/project_data/machaccnt_pay_dispatch/退款记账接口测试用例.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YzBgdMmtSysTestProject\project_data\machaccnt_pay_dispatch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YzaoutTestProject\YzAutoTestProject\project_data\machaccnt_pay_dispatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2532ED96-85D2-4C79-951C-D149500E6DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABD78B5-4C53-4439-8A65-1E6510345C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="250">
   <si>
     <t>级别</t>
   </si>
@@ -368,9 +368,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"code":"210","message":"子商户号不存在"}</t>
-  </si>
-  <si>
     <t>pay_46</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -429,35 +426,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>kip</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知错误</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>skip</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以成功</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>退款记账接口{refund_trans_no}校验</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -699,16 +667,6 @@
   <si>
     <t>mch_accnt_no(子商户号)
 子商户号为数据库不存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_accnt_no(子商户号)
-子商户号为数据库存在但不属于该商户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mch_accnt_no(子商户号)
-子商户号类型为其他类型的商户，如在途商户</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -749,10 +707,10 @@
   <si>
     <t>{
 "biz_content": {
-"trans_no": "!@#$%^&amp;*()",
+"trans_no": "12",
 "refund_trans_no":"210",
 "trans_time": "2020-01-11 14:35:41",
-"trans_channel": "20251",
+"trans_channel": "",
 "settle_type":"2",
 "trans_amt": "2200",
 "split_accnt_detail": [{
@@ -765,68 +723,6 @@
 },{
 "order_no": "test5",
 "amount": 200,
-"dispatch_event": "refund",
-"dispatch_type": "2",
-"mch_accnt_no": "profit_1",
-"accnt_amt_before": 1
-}]},
-"biz_type": "mchaccnt.refund.dispatch",
-"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
-"sign_type": "MD5",
-"timestamp": "20191028022240"
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"biz_content": {
-"trans_no": "12",
-"refund_trans_no":"210",
-"trans_time": "2020-01-11 14:35:41",
-"trans_channel": "",
-"settle_type":"2",
-"trans_amt": "2200",
-"split_accnt_detail": [{
-"order_no": "test4",
-"amount": 2000,
-"dispatch_event": "refund",
-"dispatch_type": "1",
-"mch_accnt_no": "mucsub_1",
-"accnt_amt_before": 1
-},{
-"order_no": "test5",
-"amount": 200,
-"dispatch_event": "refund",
-"dispatch_type": "2",
-"mch_accnt_no": "profit_1",
-"accnt_amt_before": 1
-}]},
-"biz_type": "mchaccnt.refund.dispatch",
-"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
-"sign_type": "MD5",
-"timestamp": "20191028022240"
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"biz_content": {
-"trans_no": "12",
-"refund_trans_no":"210",
-"trans_time": "2020-01-11 14:35:41",
-"trans_channel": "20251",
-"settle_type":"2",
-"trans_amt": "2200",
-"split_accnt_detail": [{
-"order_no": "test4",
-"amount":2000,
-"dispatch_event": "refund",
-"dispatch_type": "1",
-"mch_accnt_no": "mucsub_1",
-"accnt_amt_before": 1
-},{
-"order_no": "test5",
-"amount":"200" ,
 "dispatch_event": "refund",
 "dispatch_type": "2",
 "mch_accnt_no": "profit_1",
@@ -1447,10 +1343,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"code":"316","message":"数据结构出错:{[split_accnt_detail]参数}"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{"code":"210","message":"必输参数不能为空{amount}"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2118,6 +2010,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>{"code":"210","message":"交易所属通道和商户号不匹配，请检查配置"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"210","message":"退款记账，交易金额trans_amt和明细金额不一致"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "biz_content": {
 "trans_no": "12",
@@ -2125,49 +2025,6 @@
 "trans_time": "2020-01-11 14:35:41",
 "trans_channel": "20251",
 "settle_type":"2",
-"trans_amt": "2200",
-"split_accnt_detail": [{
-"order_no": "test4",
-"amount":2000,
-"dispatch_event": "refund",
-"dispatch_type": "2",
-"mch_accnt_no": "mucsub_1",
-"accnt_amt_before": 1
-},{
-"order_no": "test5",
-"amount":"200" ,
-"dispatch_event": "refund",
-"dispatch_type": "2",
-"mch_accnt_no": "profit_1",
-"accnt_amt_before": 1
-}]},
-"biz_type": "mchaccnt.refund.dispatch",
-"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
-"sign_type": "MD5",
-"timestamp": "20191028022240"
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":"210","message":"交易所属通道和商户号不匹配，请检查配置"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":"210","message":"退款记账，交易金额trans_amt和明细金额不一致"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"biz_content": {
-"trans_no": "12",
-"refund_trans_no":"210",
-"trans_time": "2020-01-11 14:35:41",
-"trans_channel": "20251",
-"settle_type":"2",
 "trans_amt": "0",
 "split_accnt_detail": [{
 "order_no": "test4",
@@ -2193,10 +2050,6 @@
   </si>
   <si>
     <t>{"code":"500"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2554,12 +2407,287 @@
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>{"message":"参数无效:{[trans_no]参数}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"参数无效:{[refund_trans_no]参数}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"参数无效:{[trans_time]参数}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"交易所属通道和商户号不匹配"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"分账金额有误:{[trans_amt]参数}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"数据结构出错:{[split_accnt_detail]参数}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "12",
+"refund_trans_no":"210",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "20251",
+"settle_type":"2",
+"trans_amt": "2200",
+"split_accnt_detail": [{
+"order_no": "test4",
+"amount":2000,
+"dispatch_event": "refund",
+"dispatch_type": "2",
+"mch_accnt_no": "",
+"accnt_amt_before": 1
+},{
+"order_no": "test5",
+"amount":"200" ,
+"dispatch_event": "refund",
+"dispatch_type": "2",
+"mch_accnt_no": "",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.refund.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mch_accnt_no(子商户号)
+子商户号为数据库存在但不属于该商户(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T0020181126141301000011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mch_accnt_no(子商户号)
+子商户号类型为其他类型的商户，如在途商户
+(T0020181229115338000003)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "12",
+"refund_trans_no":"210",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "20251",
+"settle_type":"2",
+"trans_amt": "2200",
+"split_accnt_detail": [{
+"order_no": "test4",
+"amount":2000,
+"dispatch_event": "refund",
+"dispatch_type": "2",
+"mch_accnt_no": "T0020181229115338000003",
+"accnt_amt_before": 1
+},{
+"order_no": "test5",
+"amount":"200" ,
+"dispatch_event": "refund",
+"dispatch_type": "2",
+"mch_accnt_no": "T0020181229115338000003",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.refund.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "!@#$%^&amp;*()",
+"refund_trans_no":"210",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "20251",
+"settle_type":"2",
+"trans_amt": "2200",
+"split_accnt_detail": [{
+"order_no": "test4",
+"amount": 2000,
+"dispatch_event": "refund",
+"dispatch_type": "2",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 1
+},{
+"order_no": "test5",
+"amount": 200,
+"dispatch_event": "refund",
+"dispatch_type": "2",
+"mch_accnt_no": "profit_1",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.refund.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "12",
+"refund_trans_no":"210",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "20251",
+"settle_type":"2",
+"trans_amt": "2200",
+"split_accnt_detail": [{
+"order_no": "test4",
+"amount":2000,
+"dispatch_event": "refund",
+"dispatch_type": "2",
+"mch_accnt_no": "wad1",
+"accnt_amt_before": 1
+},{
+"order_no": "test5",
+"amount":"200" ,
+"dispatch_event": "refund",
+"dispatch_type": "2",
+"mch_accnt_no": "zxcz",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.refund.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "12",
+"refund_trans_no":"210",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "20251",
+"settle_type":"2",
+"trans_amt": "2200",
+"split_accnt_detail": [{
+"order_no": "test4",
+"amount":2000,
+"dispatch_event": "refund",
+"dispatch_type": "2",
+"mch_accnt_no": "T0020181126141301000011",
+"accnt_amt_before": 1
+},{
+"order_no": "test5",
+"amount":"200" ,
+"dispatch_event": "refund",
+"dispatch_type": "2",
+"mch_accnt_no": "T0020181126141301000011",
+"accnt_amt_before": 1
+}]},
+"biz_type": "mchaccnt.refund.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款记账接口{accnt_amt_before}校验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accnt_amt_before(事前余额)
+超长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用正确的支付记账传参，单独对事前余额字段进行验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"biz_content": {
+"trans_no": "12",
+"refund_trans_no":"210",
+"trans_time": "2020-01-11 14:35:41",
+"trans_channel": "20251",
+"settle_type":"2",
+"trans_amt": "2200",
+"split_accnt_detail": [{
+"order_no": "test4",
+"amount":2000,
+"dispatch_event": "refund",
+"dispatch_type": "2",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 1
+},{
+"order_no": "test5",
+"amount":"200" ,
+"dispatch_event": "refund",
+"dispatch_type": "2",
+"mch_accnt_no": "mucsub_1",
+"accnt_amt_before": 12222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222
+}]},
+"biz_type": "mchaccnt.refund.dispatch",
+"out_trans_no": "225295c2068ae5405cada7edf1670749a6",
+"sign_type": "MD5",
+"timestamp": "20191028022240"
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"事前余额无效:{accnt_amt_before}参数"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"子商户号类型无效:{mch_accnt_no}参数"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{“code”:"500"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2590,14 +2718,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2606,16 +2726,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2626,11 +2738,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2655,14 +2762,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2683,27 +2787,24 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
@@ -2978,10 +3079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F52425-50B6-4FC5-B1E3-EFCEFBF70C4B}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3008,10 +3109,10 @@
         <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>35</v>
@@ -3038,23 +3139,23 @@
         <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3065,28 +3166,26 @@
         <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>102</v>
+        <v>171</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="10" t="s">
-        <v>101</v>
-      </c>
+      <c r="J3" s="11"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3094,28 +3193,26 @@
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>104</v>
+        <v>239</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="J4"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3123,23 +3220,23 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -3150,23 +3247,23 @@
         <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3177,23 +3274,23 @@
         <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -3204,28 +3301,26 @@
         <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>104</v>
+        <v>167</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="J8"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3233,28 +3328,26 @@
         <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>102</v>
+        <v>166</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="J9"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3262,28 +3355,26 @@
         <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="J10"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3291,28 +3382,26 @@
         <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="J11"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3320,23 +3409,23 @@
         <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3347,28 +3436,26 @@
         <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="J13"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3376,23 +3463,23 @@
         <v>53</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3403,23 +3490,23 @@
         <v>54</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3430,28 +3517,26 @@
         <v>55</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="J16"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3459,23 +3544,23 @@
         <v>56</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3486,23 +3571,23 @@
         <v>57</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3513,23 +3598,23 @@
         <v>58</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3540,23 +3625,23 @@
         <v>59</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3567,23 +3652,23 @@
         <v>60</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3594,23 +3679,23 @@
         <v>61</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3621,28 +3706,26 @@
         <v>62</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="J23"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3650,23 +3733,23 @@
         <v>63</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3677,23 +3760,23 @@
         <v>64</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -3704,23 +3787,23 @@
         <v>65</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -3731,28 +3814,26 @@
         <v>66</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="J27"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3760,23 +3841,23 @@
         <v>67</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3787,23 +3868,23 @@
         <v>68</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3814,23 +3895,23 @@
         <v>69</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3841,23 +3922,23 @@
         <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="3" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="1"/>
@@ -3868,23 +3949,23 @@
         <v>71</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3895,23 +3976,23 @@
         <v>72</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3922,23 +4003,23 @@
         <v>73</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -3949,23 +4030,23 @@
         <v>74</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="E35" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -3976,23 +4057,23 @@
         <v>75</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -4003,23 +4084,23 @@
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -4030,28 +4111,26 @@
         <v>77</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="3" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="11" t="s">
-        <v>103</v>
-      </c>
+      <c r="J38"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
@@ -4059,28 +4138,26 @@
         <v>78</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="3" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="I39" s="1"/>
-      <c r="J39" s="11" t="s">
-        <v>103</v>
-      </c>
+      <c r="J39" s="10"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4088,26 +4165,26 @@
         <v>79</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H40" s="1"/>
+        <v>241</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>249</v>
+      </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="11" t="s">
-        <v>103</v>
-      </c>
+      <c r="J40" s="10"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4115,82 +4192,80 @@
         <v>80</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>159</v>
+        <v>237</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H41" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="10" t="s">
-        <v>101</v>
-      </c>
+      <c r="J41"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="3" t="s">
-        <v>172</v>
+        <v>245</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J42" s="1"/>
+        <v>246</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="3" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -4200,26 +4275,26 @@
         <v>83</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -4229,26 +4304,26 @@
         <v>84</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -4258,164 +4333,178 @@
         <v>85</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="3" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="3" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="3" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="3" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+        <v>247</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="G51" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4430,7 +4519,7 @@
     </row>
     <row r="53" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4442,6 +4531,21 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4626,21 +4730,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="15" master=""/>
-</allowEditUser>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4661,21 +4761,25 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="15" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4684,7 +4788,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4702,7 +4806,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4711,7 +4815,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/project_data/machaccnt_pay_dispatch/退款记账接口测试用例.xlsx
+++ b/project_data/machaccnt_pay_dispatch/退款记账接口测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YzaoutTestProject\YzAutoTestProject\project_data\machaccnt_pay_dispatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABD78B5-4C53-4439-8A65-1E6510345C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C70DD9E-4D3A-4D6A-A701-67A34F222536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3081,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F52425-50B6-4FC5-B1E3-EFCEFBF70C4B}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/project_data/machaccnt_pay_dispatch/退款记账接口测试用例.xlsx
+++ b/project_data/machaccnt_pay_dispatch/退款记账接口测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\YzaoutTestProject\YzAutoTestProject\project_data\machaccnt_pay_dispatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C70DD9E-4D3A-4D6A-A701-67A34F222536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498C1391-E4F0-49D1-824A-9D1E4ACFF005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="253">
   <si>
     <t>级别</t>
   </si>
@@ -139,10 +139,6 @@
   </si>
   <si>
     <t>前置条件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2679,8 +2675,24 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{“code”:"500"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>{"code":"500"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"module":"1","pri":"3","severity":"3","assignedTo":"zhichanglong"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"module":"1","pri":"2","severity":"2","assignedTo":"zhichanglong"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"module":"1","pri":"1","severity":"1","assignedTo":"zhichanglong"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3081,8 +3093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F52425-50B6-4FC5-B1E3-EFCEFBF70C4B}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3103,59 +3115,61 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G2" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3163,26 +3177,28 @@
     </row>
     <row r="3" spans="1:11" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G3" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="11"/>
@@ -3190,26 +3206,28 @@
     </row>
     <row r="4" spans="1:11" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G4" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4"/>
@@ -3217,26 +3235,28 @@
     </row>
     <row r="5" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -3244,26 +3264,28 @@
     </row>
     <row r="6" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G6" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3271,26 +3293,28 @@
     </row>
     <row r="7" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -3298,26 +3322,28 @@
     </row>
     <row r="8" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G8" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8"/>
@@ -3325,26 +3351,28 @@
     </row>
     <row r="9" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G9" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9"/>
@@ -3352,26 +3380,28 @@
     </row>
     <row r="10" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10"/>
@@ -3379,26 +3409,28 @@
     </row>
     <row r="11" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G11" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11"/>
@@ -3406,26 +3438,28 @@
     </row>
     <row r="12" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G12" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3433,26 +3467,28 @@
     </row>
     <row r="13" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G13" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13"/>
@@ -3460,26 +3496,28 @@
     </row>
     <row r="14" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G14" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3487,26 +3525,28 @@
     </row>
     <row r="15" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G15" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3514,26 +3554,28 @@
     </row>
     <row r="16" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="G16" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16"/>
@@ -3541,26 +3583,28 @@
     </row>
     <row r="17" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G17" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3568,26 +3612,28 @@
     </row>
     <row r="18" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G18" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3595,26 +3641,28 @@
     </row>
     <row r="19" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G19" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3622,26 +3670,28 @@
     </row>
     <row r="20" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G20" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3649,26 +3699,28 @@
     </row>
     <row r="21" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G21" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3676,26 +3728,28 @@
     </row>
     <row r="22" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G22" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3703,26 +3757,28 @@
     </row>
     <row r="23" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G23" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23"/>
@@ -3730,26 +3786,28 @@
     </row>
     <row r="24" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G24" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3757,26 +3815,28 @@
     </row>
     <row r="25" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G25" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -3784,26 +3844,28 @@
     </row>
     <row r="26" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G26" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -3811,26 +3873,28 @@
     </row>
     <row r="27" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G27" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27"/>
@@ -3838,26 +3902,28 @@
     </row>
     <row r="28" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G28" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3865,26 +3931,28 @@
     </row>
     <row r="29" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G29" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3892,26 +3960,28 @@
     </row>
     <row r="30" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G30" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3919,26 +3989,28 @@
     </row>
     <row r="31" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G31" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="1"/>
@@ -3946,26 +4018,28 @@
     </row>
     <row r="32" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F32" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G32" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3973,26 +4047,28 @@
     </row>
     <row r="33" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G33" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -4000,26 +4076,28 @@
     </row>
     <row r="34" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G34" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -4027,26 +4105,28 @@
     </row>
     <row r="35" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G35" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -4054,26 +4134,28 @@
     </row>
     <row r="36" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G36" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -4081,26 +4163,28 @@
     </row>
     <row r="37" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G37" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -4108,26 +4192,28 @@
     </row>
     <row r="38" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G38" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38"/>
@@ -4135,26 +4221,28 @@
     </row>
     <row r="39" spans="1:11" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G39" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="10"/>
@@ -4162,26 +4250,28 @@
     </row>
     <row r="40" spans="1:11" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="G40" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="10"/>
@@ -4189,26 +4279,28 @@
     </row>
     <row r="41" spans="1:11" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="H41" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41"/>
@@ -4216,26 +4308,28 @@
     </row>
     <row r="42" spans="1:11" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42"/>
@@ -4243,268 +4337,286 @@
     </row>
     <row r="43" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="D43" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="D44" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="H44" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="D45" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="H45" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="D46" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="H46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="D47" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F47" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="G47" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H47" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="D48" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F48" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="G48" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H48" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="G49" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H49" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="G50" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H50" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="G51" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H51" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4519,7 +4631,7 @@
     </row>
     <row r="53" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4534,7 +4646,7 @@
     </row>
     <row r="54" spans="1:11" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4730,12 +4842,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -4743,7 +4849,31 @@
 </settings>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="15" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="13">
     <comment s:ref="P1" rgbClr="FF0000">
@@ -4760,25 +4890,16 @@
 </comments>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="15" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -4787,17 +4908,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4815,7 +4927,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
